--- a/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
+++ b/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uni\LAB SOFT\TP-MASTER SECURITY SYSTEM\Entregas\Entrega 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ACBD40-5CCF-4958-8C2F-B75049976161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBA42AA-3571-44BF-BB97-6F33685C109C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AAAEB99-6391-463B-8E85-5B11966A4D20}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="18192" windowHeight="9852" xr2:uid="{2AAAEB99-6391-463B-8E85-5B11966A4D20}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -337,25 +337,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -513,13 +494,30 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -527,12 +525,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -891,19 +891,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>60</c:v>
@@ -1045,10 +1045,10 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20</c:v>
@@ -1196,7 +1196,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>24</c:v>
@@ -2203,16 +2203,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91455256-008D-4890-AC21-4BE2A381E64F}" name="Tabla1" displayName="Tabla1" ref="B1:H9" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91455256-008D-4890-AC21-4BE2A381E64F}" name="Tabla1" displayName="Tabla1" ref="B1:H9" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B1:H9" xr:uid="{91455256-008D-4890-AC21-4BE2A381E64F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A62DD95F-1B9A-48D6-A2F0-AB427BB89A33}" name="Rol" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{9A5C4082-45B3-4A30-86CD-E7EA5A28067D}" name="Estimated SP_x000a_Sprint 1" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A8E7921D-D155-4432-8991-7CBDF26B7CDC}" name="Estimated SP_x000a_Sprint 2" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{62D30787-6DDD-4659-A714-981154451A4A}" name="Estimated SP_x000a_Sprint 3" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{AA0A5A6A-2E71-4D68-8803-EF641587D2B5}" name="Estimated SP_x000a_Sprint 4" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6D9D4E5A-3D66-41C2-BF5D-DA6A7997B34E}" name="Estimated SP_x000a_Sprint 5" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{1123CB6B-E911-45BC-98D0-3D6234D81695}" name="Total Estimated _x000a_Sprint 5" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{A62DD95F-1B9A-48D6-A2F0-AB427BB89A33}" name="Rol" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9A5C4082-45B3-4A30-86CD-E7EA5A28067D}" name="Estimated SP_x000a_Sprint 1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A8E7921D-D155-4432-8991-7CBDF26B7CDC}" name="Estimated SP_x000a_Sprint 2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{62D30787-6DDD-4659-A714-981154451A4A}" name="Estimated SP_x000a_Sprint 3" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{AA0A5A6A-2E71-4D68-8803-EF641587D2B5}" name="Estimated SP_x000a_Sprint 4" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{6D9D4E5A-3D66-41C2-BF5D-DA6A7997B34E}" name="Estimated SP_x000a_Sprint 5" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1123CB6B-E911-45BC-98D0-3D6234D81695}" name="Total Estimated _x000a_Sprint 5" dataDxfId="0">
       <calculatedColumnFormula>C2+D2+E2+F2+G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2520,7 +2520,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2568,7 +2568,7 @@
         <v>91</v>
       </c>
       <c r="D2" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2">
         <v>38</v>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="H2" s="13">
         <f t="shared" ref="H2:H9" si="0">C2+D2+E2+F2+G2</f>
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>28</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="H3" s="13">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -2616,10 +2616,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>23</v>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="H4" s="13">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2640,20 +2640,20 @@
         <v>52</v>
       </c>
       <c r="D5" s="2">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2">
         <v>14</v>
       </c>
       <c r="H5" s="13">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>20</v>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="H6" s="13">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -2738,15 +2738,15 @@
       </c>
       <c r="D9" s="15">
         <f>SUM(D2:D8)</f>
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="E9" s="15">
         <f>SUM(E2:E8)</f>
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F9" s="15">
         <f>SUM(F2:F8)</f>
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G9" s="15">
         <f>SUM(G2:G8)</f>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
-        <v>1116</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>95</v>
       </c>
       <c r="E20" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4">
@@ -2856,7 +2856,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2">
         <f t="shared" ref="M20:M27" si="1">C20+E20+G20+I20+K20</f>
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N20" s="2"/>
     </row>
@@ -2874,7 +2874,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2891,7 +2891,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="N21" s="2"/>
     </row>
@@ -2909,11 +2909,11 @@
         <v>15</v>
       </c>
       <c r="E22" s="4">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="4">
@@ -2926,7 +2926,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N22" s="2"/>
     </row>
@@ -2944,15 +2944,15 @@
         <v>48</v>
       </c>
       <c r="E23" s="2">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2">
@@ -2961,7 +2961,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="N23" s="2"/>
     </row>
@@ -2979,7 +2979,7 @@
         <v>80</v>
       </c>
       <c r="E24" s="4">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4">
@@ -2996,7 +2996,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N24" s="2"/>
     </row>
@@ -3085,17 +3085,17 @@
       </c>
       <c r="E27" s="2">
         <f>SUM(E20:E26)</f>
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
         <f>SUM(G20:G26)</f>
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
         <f>SUM(I20:I26)</f>
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
@@ -3105,7 +3105,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2">
         <f t="shared" si="1"/>
-        <v>1116</v>
+        <v>1211</v>
       </c>
       <c r="N27" s="2"/>
     </row>

--- a/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
+++ b/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uni\LAB SOFT\TP-MASTER SECURITY SYSTEM\Entregas\Entrega 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uni\LAB SOFT\TP-MASTER SECURITY SYSTEM\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBA42AA-3571-44BF-BB97-6F33685C109C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A31AB7E-4E3A-42E9-AECD-D276B3FB8E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="18192" windowHeight="9852" xr2:uid="{2AAAEB99-6391-463B-8E85-5B11966A4D20}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AAAEB99-6391-463B-8E85-5B11966A4D20}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -894,19 +894,19 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>36</c:v>
@@ -1042,19 +1042,19 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>47</c:v>
@@ -1190,7 +1190,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23</c:v>
@@ -2520,7 +2520,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2592,20 +2592,20 @@
         <v>54</v>
       </c>
       <c r="D3" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2">
         <v>15</v>
       </c>
       <c r="H3" s="13">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -2616,10 +2616,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>23</v>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="H4" s="13">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2640,10 +2640,10 @@
         <v>52</v>
       </c>
       <c r="D5" s="2">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2">
         <v>32</v>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H5" s="13">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -2688,10 +2688,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2">
         <v>30</v>
@@ -2738,15 +2738,15 @@
       </c>
       <c r="D9" s="15">
         <f>SUM(D2:D8)</f>
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="E9" s="15">
         <f>SUM(E2:E8)</f>
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="F9" s="15">
         <f>SUM(F2:F8)</f>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G9" s="15">
         <f>SUM(G2:G8)</f>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
-        <v>1211</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2874,15 +2874,15 @@
         <v>50</v>
       </c>
       <c r="E21" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2">
@@ -2891,7 +2891,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="N21" s="2"/>
     </row>
@@ -2909,11 +2909,11 @@
         <v>15</v>
       </c>
       <c r="E22" s="4">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="4">
@@ -2926,7 +2926,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N22" s="2"/>
     </row>
@@ -2944,11 +2944,11 @@
         <v>48</v>
       </c>
       <c r="E23" s="2">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2">
@@ -2961,7 +2961,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2">
         <f t="shared" si="1"/>
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="N23" s="2"/>
     </row>
@@ -3014,11 +3014,11 @@
         <v>16</v>
       </c>
       <c r="E25" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2">
@@ -3085,17 +3085,17 @@
       </c>
       <c r="E27" s="2">
         <f>SUM(E20:E26)</f>
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
         <f>SUM(G20:G26)</f>
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
         <f>SUM(I20:I26)</f>
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
@@ -3105,7 +3105,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2">
         <f t="shared" si="1"/>
-        <v>1211</v>
+        <v>1244</v>
       </c>
       <c r="N27" s="2"/>
     </row>

--- a/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
+++ b/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uni\LAB SOFT\TP-MASTER SECURITY SYSTEM\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A31AB7E-4E3A-42E9-AECD-D276B3FB8E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F5F4A-A9CA-4F2E-A20D-C28C679A8476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AAAEB99-6391-463B-8E85-5B11966A4D20}"/>
   </bookViews>
@@ -894,7 +894,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>69</c:v>
@@ -1042,7 +1042,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -2520,7 +2520,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2592,10 +2592,10 @@
         <v>54</v>
       </c>
       <c r="D3" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
         <v>45</v>
@@ -2738,11 +2738,11 @@
       </c>
       <c r="D9" s="15">
         <f>SUM(D2:D8)</f>
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E9" s="15">
         <f>SUM(E2:E8)</f>
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F9" s="15">
         <f>SUM(F2:F8)</f>
@@ -2841,7 +2841,9 @@
       <c r="E20" s="4">
         <v>41</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>44</v>
+      </c>
       <c r="G20" s="4">
         <v>38</v>
       </c>
@@ -2874,11 +2876,13 @@
         <v>50</v>
       </c>
       <c r="E21" s="2">
-        <v>48</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F21" s="2">
+        <v>61</v>
+      </c>
       <c r="G21" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
@@ -2911,7 +2915,9 @@
       <c r="E22" s="4">
         <v>69</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>60</v>
+      </c>
       <c r="G22" s="4">
         <v>16</v>
       </c>
@@ -2946,7 +2952,9 @@
       <c r="E23" s="2">
         <v>88</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>90</v>
+      </c>
       <c r="G23" s="2">
         <v>40</v>
       </c>
@@ -2981,7 +2989,9 @@
       <c r="E24" s="4">
         <v>28</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>35</v>
+      </c>
       <c r="G24" s="4">
         <v>20</v>
       </c>
@@ -3016,7 +3026,9 @@
       <c r="E25" s="2">
         <v>70</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>70</v>
+      </c>
       <c r="G25" s="2">
         <v>16</v>
       </c>
@@ -3051,7 +3063,9 @@
       <c r="E26" s="4">
         <v>36</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2">
+        <v>30</v>
+      </c>
       <c r="G26" s="4">
         <v>47</v>
       </c>
@@ -3085,12 +3099,15 @@
       </c>
       <c r="E27" s="2">
         <f>SUM(E20:E26)</f>
-        <v>380</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="F27" s="2">
+        <f>SUM(F20:F26)</f>
+        <v>390</v>
+      </c>
       <c r="G27" s="2">
         <f>SUM(G20:G26)</f>
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">

--- a/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
+++ b/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uni\LAB SOFT\TP-MASTER SECURITY SYSTEM\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F5F4A-A9CA-4F2E-A20D-C28C679A8476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4886DA4-22CF-4C27-A0FF-DA921A83C5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AAAEB99-6391-463B-8E85-5B11966A4D20}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -331,6 +331,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,7 +1044,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -1193,7 +1195,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32</c:v>
@@ -2520,7 +2522,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2595,7 +2597,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2">
         <v>45</v>
@@ -2605,7 +2607,7 @@
       </c>
       <c r="H3" s="13">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -2622,14 +2624,14 @@
         <v>16</v>
       </c>
       <c r="F4" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2">
         <v>14</v>
       </c>
       <c r="H4" s="13">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2742,11 +2744,11 @@
       </c>
       <c r="E9" s="15">
         <f>SUM(E2:E8)</f>
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F9" s="15">
         <f>SUM(F2:F8)</f>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="G9" s="15">
         <f>SUM(G2:G8)</f>
@@ -2754,7 +2756,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
-        <v>1244</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2844,11 +2846,11 @@
       <c r="F20" s="2">
         <v>44</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="17">
         <v>38</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="4">
+      <c r="I20" s="17">
         <v>38</v>
       </c>
       <c r="J20" s="2"/>
@@ -2881,11 +2883,11 @@
       <c r="F21" s="2">
         <v>61</v>
       </c>
-      <c r="G21" s="2">
-        <v>14</v>
+      <c r="G21" s="18">
+        <v>30</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="2">
+      <c r="I21" s="18">
         <v>45</v>
       </c>
       <c r="J21" s="2"/>
@@ -2895,7 +2897,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="N21" s="2"/>
     </row>
@@ -2918,12 +2920,12 @@
       <c r="F22" s="2">
         <v>60</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="17">
         <v>16</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="4">
-        <v>23</v>
+      <c r="I22" s="17">
+        <v>35</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="4">
@@ -2932,7 +2934,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="N22" s="2"/>
     </row>
@@ -2955,11 +2957,11 @@
       <c r="F23" s="2">
         <v>90</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="18">
         <v>40</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="2">
+      <c r="I23" s="18">
         <v>32</v>
       </c>
       <c r="J23" s="2"/>
@@ -2992,11 +2994,11 @@
       <c r="F24" s="2">
         <v>35</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="17">
         <v>20</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="4">
+      <c r="I24" s="17">
         <v>24</v>
       </c>
       <c r="J24" s="2"/>
@@ -3029,11 +3031,11 @@
       <c r="F25" s="2">
         <v>70</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="18">
         <v>16</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="2">
+      <c r="I25" s="18">
         <v>30</v>
       </c>
       <c r="J25" s="2"/>
@@ -3066,11 +3068,11 @@
       <c r="F26" s="2">
         <v>30</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="17">
         <v>47</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="4">
+      <c r="I26" s="17">
         <v>35</v>
       </c>
       <c r="J26" s="2"/>
@@ -3105,14 +3107,14 @@
         <f>SUM(F20:F26)</f>
         <v>390</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="18">
         <f>SUM(G20:G26)</f>
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="2">
+      <c r="I27" s="18">
         <f>SUM(I20:I26)</f>
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
@@ -3122,7 +3124,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2">
         <f t="shared" si="1"/>
-        <v>1244</v>
+        <v>1272</v>
       </c>
       <c r="N27" s="2"/>
     </row>

--- a/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
+++ b/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uni\LAB SOFT\TP-MASTER SECURITY SYSTEM\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4886DA4-22CF-4C27-A0FF-DA921A83C5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A64B52-11B5-46AF-ACAB-089BD5F286BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AAAEB99-6391-463B-8E85-5B11966A4D20}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -331,8 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2522,7 +2520,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2846,11 +2844,13 @@
       <c r="F20" s="2">
         <v>44</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="4">
         <v>38</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="17">
+      <c r="H20" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" s="4">
         <v>38</v>
       </c>
       <c r="J20" s="2"/>
@@ -2883,11 +2883,13 @@
       <c r="F21" s="2">
         <v>61</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="2">
         <v>30</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="18">
+      <c r="H21" s="2">
+        <v>45</v>
+      </c>
+      <c r="I21" s="2">
         <v>45</v>
       </c>
       <c r="J21" s="2"/>
@@ -2920,11 +2922,13 @@
       <c r="F22" s="2">
         <v>60</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="4">
         <v>16</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="17">
+      <c r="H22" s="2">
+        <v>30</v>
+      </c>
+      <c r="I22" s="4">
         <v>35</v>
       </c>
       <c r="J22" s="2"/>
@@ -2957,11 +2961,13 @@
       <c r="F23" s="2">
         <v>90</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="2">
         <v>40</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="18">
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
         <v>32</v>
       </c>
       <c r="J23" s="2"/>
@@ -2994,11 +3000,13 @@
       <c r="F24" s="2">
         <v>35</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="4">
         <v>20</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="17">
+      <c r="H24" s="2">
+        <v>40</v>
+      </c>
+      <c r="I24" s="4">
         <v>24</v>
       </c>
       <c r="J24" s="2"/>
@@ -3031,11 +3039,13 @@
       <c r="F25" s="2">
         <v>70</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="2">
         <v>16</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="18">
+      <c r="H25" s="2">
+        <v>37</v>
+      </c>
+      <c r="I25" s="2">
         <v>30</v>
       </c>
       <c r="J25" s="2"/>
@@ -3068,11 +3078,13 @@
       <c r="F26" s="2">
         <v>30</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="4">
         <v>47</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="17">
+      <c r="H26" s="2">
+        <v>49</v>
+      </c>
+      <c r="I26" s="4">
         <v>35</v>
       </c>
       <c r="J26" s="2"/>
@@ -3107,12 +3119,15 @@
         <f>SUM(F20:F26)</f>
         <v>390</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="2">
         <f>SUM(G20:G26)</f>
         <v>207</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="18">
+      <c r="H27" s="2">
+        <f>SUM(H20:H26)</f>
+        <v>243</v>
+      </c>
+      <c r="I27" s="2">
         <f>SUM(I20:I26)</f>
         <v>239</v>
       </c>

--- a/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
+++ b/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uni\LAB SOFT\TP-MASTER SECURITY SYSTEM\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A64B52-11B5-46AF-ACAB-089BD5F286BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91519CE-9CA5-4617-A25D-304ED624FF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AAAEB99-6391-463B-8E85-5B11966A4D20}"/>
   </bookViews>
@@ -2520,7 +2520,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2862,7 +2862,10 @@
         <f t="shared" ref="M20:M27" si="1">C20+E20+G20+I20+K20</f>
         <v>248</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" s="2">
+        <f>SUM(D20,F20,H20,J20,L20)</f>
+        <v>177</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -2901,7 +2904,10 @@
         <f t="shared" si="1"/>
         <v>186</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" s="2">
+        <f t="shared" ref="N20:N22" si="2">SUM(D21,F21,H21,J21,L21)</f>
+        <v>156</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -2940,7 +2946,10 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" s="2">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -2970,16 +2979,23 @@
       <c r="I23" s="2">
         <v>32</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
       <c r="K23" s="2">
         <v>14</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
       <c r="M23" s="2">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" s="2">
+        <f>SUM(D23,F23,H23,J23,L23)</f>
+        <v>142</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -3018,7 +3034,10 @@
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" s="2">
+        <f t="shared" ref="N24:N27" si="3">SUM(D24,F24,H24,J24,L24)</f>
+        <v>155</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -3057,7 +3076,10 @@
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="N25" s="2"/>
+      <c r="N25" s="2">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -3096,7 +3118,10 @@
         <f t="shared" si="1"/>
         <v>159</v>
       </c>
-      <c r="N26" s="2"/>
+      <c r="N26" s="2">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -3104,31 +3129,31 @@
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <f>SUM(C20:C26)</f>
+        <f t="shared" ref="C27:I27" si="4">SUM(C20:C26)</f>
         <v>305</v>
       </c>
       <c r="D27" s="2">
-        <f>SUM(D20:D26)</f>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="E27" s="2">
-        <f>SUM(E20:E26)</f>
+        <f t="shared" si="4"/>
         <v>374</v>
       </c>
       <c r="F27" s="2">
-        <f>SUM(F20:F26)</f>
+        <f t="shared" si="4"/>
         <v>390</v>
       </c>
       <c r="G27" s="2">
-        <f>SUM(G20:G26)</f>
+        <f t="shared" si="4"/>
         <v>207</v>
       </c>
       <c r="H27" s="2">
-        <f>SUM(H20:H26)</f>
+        <f t="shared" si="4"/>
         <v>243</v>
       </c>
       <c r="I27" s="2">
-        <f>SUM(I20:I26)</f>
+        <f t="shared" si="4"/>
         <v>239</v>
       </c>
       <c r="J27" s="2"/>
@@ -3141,7 +3166,10 @@
         <f t="shared" si="1"/>
         <v>1272</v>
       </c>
-      <c r="N27" s="2"/>
+      <c r="N27" s="2">
+        <f t="shared" si="3"/>
+        <v>953</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
+++ b/Documentos/Tiempos x Recurso x Sprint (6+1 Software).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uni\LAB SOFT\TP-MASTER SECURITY SYSTEM\Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91519CE-9CA5-4617-A25D-304ED624FF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDE6A2B-ADDF-48CD-BFA5-A94C315BFA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AAAEB99-6391-463B-8E85-5B11966A4D20}"/>
   </bookViews>
@@ -2520,7 +2520,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2853,7 +2853,9 @@
       <c r="I20" s="4">
         <v>38</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <v>46</v>
+      </c>
       <c r="K20" s="4">
         <v>40</v>
       </c>
@@ -2864,7 +2866,7 @@
       </c>
       <c r="N20" s="2">
         <f>SUM(D20,F20,H20,J20,L20)</f>
-        <v>177</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2895,7 +2897,9 @@
       <c r="I21" s="2">
         <v>45</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <v>70</v>
+      </c>
       <c r="K21" s="2">
         <v>15</v>
       </c>
@@ -2905,8 +2909,8 @@
         <v>186</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" ref="N20:N22" si="2">SUM(D21,F21,H21,J21,L21)</f>
-        <v>156</v>
+        <f t="shared" ref="N21:N22" si="2">SUM(D21,F21,H21,J21,L21)</f>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2937,7 +2941,9 @@
       <c r="I22" s="4">
         <v>35</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <v>30</v>
+      </c>
       <c r="K22" s="4">
         <v>14</v>
       </c>
@@ -2948,7 +2954,7 @@
       </c>
       <c r="N22" s="2">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3025,7 +3031,9 @@
       <c r="I24" s="4">
         <v>24</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2">
+        <v>36</v>
+      </c>
       <c r="K24" s="4">
         <v>15</v>
       </c>
@@ -3036,7 +3044,7 @@
       </c>
       <c r="N24" s="2">
         <f t="shared" ref="N24:N27" si="3">SUM(D24,F24,H24,J24,L24)</f>
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3067,7 +3075,9 @@
       <c r="I25" s="2">
         <v>30</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <v>58</v>
+      </c>
       <c r="K25" s="2">
         <v>14</v>
       </c>
@@ -3078,7 +3088,7 @@
       </c>
       <c r="N25" s="2">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3109,7 +3119,9 @@
       <c r="I26" s="4">
         <v>35</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2">
+        <v>50</v>
+      </c>
       <c r="K26" s="4">
         <v>35</v>
       </c>
@@ -3120,7 +3132,7 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -3156,7 +3168,10 @@
         <f t="shared" si="4"/>
         <v>239</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2">
+        <f>SUM(J20:J26)</f>
+        <v>290</v>
+      </c>
       <c r="K27" s="2">
         <f>SUM(K20:K26)</f>
         <v>147</v>
@@ -3168,7 +3183,7 @@
       </c>
       <c r="N27" s="2">
         <f t="shared" si="3"/>
-        <v>953</v>
+        <v>1243</v>
       </c>
     </row>
   </sheetData>
